--- a/Documents/Focuser.xlsx
+++ b/Documents/Focuser.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Telescope\Focuser\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BDCB81-6E35-4A42-8993-E5239814E54A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FEDD8F-FA52-4669-8E26-AD006FD0EAFE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{AE2C0724-02C7-4D83-B4A4-4A248F1BFA32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="114">
   <si>
     <t>00 = coils released after move, 01 = coils power on after move</t>
   </si>
@@ -66,12 +67,6 @@
     <t>#</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Function</t>
-  </si>
-  <si>
     <t>Get MaxStep</t>
   </si>
   <si>
@@ -135,9 +130,6 @@
     <t>reSet arduino Controller</t>
   </si>
   <si>
-    <t>Get Motor Mpving Status</t>
-  </si>
-  <si>
     <t>Get Motor Controller Status</t>
   </si>
   <si>
@@ -328,15 +320,85 @@
   </si>
   <si>
     <t>Get update of Position on lcd when Moving</t>
+  </si>
+  <si>
+    <t>MyFocuser</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>ASCOM</t>
+  </si>
+  <si>
+    <t>get Position</t>
+  </si>
+  <si>
+    <t>get Temperature</t>
+  </si>
+  <si>
+    <t>Get Motor Moving Status</t>
+  </si>
+  <si>
+    <t>get IsMoving</t>
+  </si>
+  <si>
+    <t>getDriverVersion</t>
+  </si>
+  <si>
+    <t>getMaxStep</t>
+  </si>
+  <si>
+    <t>getMaxIncrement</t>
+  </si>
+  <si>
+    <t>getDriverInfo</t>
+  </si>
+  <si>
+    <t>get StepSize</t>
+  </si>
+  <si>
+    <t>get TempCompAvailable</t>
+  </si>
+  <si>
+    <t>get Tempcomp</t>
+  </si>
+  <si>
+    <t>get Connected</t>
+  </si>
+  <si>
+    <t>Set new target position</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -351,7 +413,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -359,13 +421,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -682,996 +793,1064 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC69FD2-7EC8-451A-A8DE-F5935CDAF5E6}">
-  <dimension ref="A1:E128"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
+    <row r="1" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>103</v>
+      </c>
+      <c r="D4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="C20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
         <v>55</v>
       </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="D27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
         <v>42</v>
       </c>
-      <c r="C28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>96</v>
-      </c>
-      <c r="C48" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>65</v>
+      </c>
+      <c r="C50" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>97</v>
-      </c>
-      <c r="C63" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="C65" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C69" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C70" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>22</v>
-      </c>
-      <c r="C73" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>23</v>
-      </c>
-      <c r="C75" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
+        <v>74</v>
+      </c>
+      <c r="B77" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" t="s">
         <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>24</v>
-      </c>
-      <c r="C77" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>25</v>
+        <v>35</v>
+      </c>
+      <c r="C79" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="B83" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>60</v>
-      </c>
-      <c r="C89" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C90" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="B91" t="s">
+        <v>58</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
         <v>126</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5618657D-4186-489B-A454-8FF8D721A42E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>